--- a/Data/EC/NIT-9014139037.xlsx
+++ b/Data/EC/NIT-9014139037.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59241A0-243B-4270-95E5-2240A7EBE53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E425580-7579-40E6-83BD-00D777290914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D4F46D4-02A2-47C5-81F4-FBC128166D98}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DF1153C-0D38-475B-BA3B-017587C1BE74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,49 +71,43 @@
     <t>YIMI ANTONIO OJEDA GUEVARA</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -527,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449E05FB-54E2-D6A2-9599-4E11DAAE11F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FF10B7-C9FB-5DF2-28B3-560E67AD34BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50234C-C194-420B-8AB0-CEF1AAD9BC01}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC9777-2F5F-4658-8488-206DF8928F26}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -903,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -980,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>936533</v>
+        <v>832000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -996,17 +990,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1033,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1319,102 +1313,56 @@
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="24">
         <v>64000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="24">
         <v>1600000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="24">
-        <v>40533</v>
-      </c>
-      <c r="G30" s="24">
-        <v>1600000</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
